--- a/tmpdata/res.xlsx
+++ b/tmpdata/res.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768D4EBC-DCE8-418A-AC50-EA9053AB63AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809ACB2A-4D5F-4C67-980F-6367073BF2DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,6 +190,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>原始实验</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -521,6 +524,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>实验一</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -852,6 +858,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>实验二</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1936,15 +1945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7886,8 +7895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C9302F-DEC2-4090-95A0-E524F72B8618}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:C100"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
